--- a/screenDims.xlsx
+++ b/screenDims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
@@ -404,7 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -439,7 +441,7 @@
         <v>1050</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>53.7</v>
       </c>
     </row>
   </sheetData>
